--- a/sydw/2020上/考点/8-公民道德建设.xlsx
+++ b/sydw/2020上/考点/8-公民道德建设.xlsx
@@ -1,43 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>公民道德建设实施纲要</t>
+  </si>
+  <si>
+    <t>基本道德规范</t>
+  </si>
+  <si>
+    <t>爱国守法、明礼诚信、团结友善、勤俭自强、敬业奉献</t>
+  </si>
+  <si>
+    <t>社会公德</t>
+  </si>
+  <si>
+    <t>文明礼貌、助人为乐、爱护公物、保护环境、遵纪守法</t>
+  </si>
+  <si>
+    <t>家庭美德</t>
+  </si>
+  <si>
+    <t>尊老爱幼、男女平等、夫妻和睦、勤俭持家、邻里团结</t>
+  </si>
+  <si>
+    <t>职业道德</t>
+  </si>
+  <si>
+    <t>爱岗敬业、诚实守信、办事公道、服务群众、奉献社会</t>
+  </si>
+  <si>
+    <t>环境道德</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +418,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +979,67 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="4:7">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sydw/2020上/考点/8-公民道德建设.xlsx
+++ b/sydw/2020上/考点/8-公民道德建设.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>公民道德建设实施纲要</t>
   </si>
@@ -44,6 +45,387 @@
   </si>
   <si>
     <t>环境道德</t>
+  </si>
+  <si>
+    <t>《公民道德建设实施纲要》</t>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》</t>
+  </si>
+  <si>
+    <t>道德概述</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <r>
+      <t>一种特殊的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会意识形态</t>
+    </r>
+  </si>
+  <si>
+    <t>反应阶级</t>
+  </si>
+  <si>
+    <r>
+      <t>以善恶为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>评价标准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>依靠社会舆论、传统习俗、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内心信念</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发挥作用</t>
+    </r>
+  </si>
+  <si>
+    <t>起源</t>
+  </si>
+  <si>
+    <t>首要前提</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>客观条件</t>
+  </si>
+  <si>
+    <t>社会关系</t>
+  </si>
+  <si>
+    <t>主观条件</t>
+  </si>
+  <si>
+    <t>人的自我意识</t>
+  </si>
+  <si>
+    <t>本质</t>
+  </si>
+  <si>
+    <t>反映社会经济关系</t>
+  </si>
+  <si>
+    <t>是社会利益关系的特殊调节方式(非制度化)</t>
+  </si>
+  <si>
+    <r>
+      <t>是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实践精神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(知行合一)</t>
+    </r>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>认识功能</t>
+  </si>
+  <si>
+    <t>明辨善恶</t>
+  </si>
+  <si>
+    <t>规范功能</t>
+  </si>
+  <si>
+    <t>规范行为</t>
+  </si>
+  <si>
+    <t>调节功能</t>
+  </si>
+  <si>
+    <t>指导纠正</t>
+  </si>
+  <si>
+    <t>最终要的功能</t>
+  </si>
+  <si>
+    <t>调节形式：道德评价</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>五种类型</t>
+  </si>
+  <si>
+    <t>原始社会、奴隶、封建、资本主义、社会主义的道德</t>
+  </si>
+  <si>
+    <t>总体趋势</t>
+  </si>
+  <si>
+    <t>向上的，前进的</t>
+  </si>
+  <si>
+    <t>公民道德建设</t>
+  </si>
+  <si>
+    <t>重要性、紧迫性、长期性</t>
+  </si>
+  <si>
+    <t>指导思想</t>
+  </si>
+  <si>
+    <t>以习近平新时代中国特色社会主义思想为指导</t>
+  </si>
+  <si>
+    <t>围绕“四个伟大”</t>
+  </si>
+  <si>
+    <t>构筑“三个中国”</t>
+  </si>
+  <si>
+    <t>四个伟大</t>
+  </si>
+  <si>
+    <t>伟大斗争</t>
+  </si>
+  <si>
+    <t>国内敌对势力</t>
+  </si>
+  <si>
+    <t>促进“三念”团结在一起</t>
+  </si>
+  <si>
+    <t>理想信念、价值理念、道德观念</t>
+  </si>
+  <si>
+    <t>伟大工程</t>
+  </si>
+  <si>
+    <t>党的建设</t>
+  </si>
+  <si>
+    <t>宫斗是梦</t>
+  </si>
+  <si>
+    <t>宫斗终究是一场梦</t>
+  </si>
+  <si>
+    <t>培养和造就担当民族复兴大任的时代新人</t>
+  </si>
+  <si>
+    <t>伟大事业</t>
+  </si>
+  <si>
+    <t>建设社会主义</t>
+  </si>
+  <si>
+    <t>方针原则</t>
+  </si>
+  <si>
+    <t>坚持社会主义道德建设与社会主义市场经济相适应</t>
+  </si>
+  <si>
+    <t>伟大梦想</t>
+  </si>
+  <si>
+    <t>中国梦</t>
+  </si>
+  <si>
+    <t>坚持继承优良传统与弘扬时代精神相结合</t>
+  </si>
+  <si>
+    <t>坚持尊重个人合法权益与承担社会责任相统一</t>
+  </si>
+  <si>
+    <t>三个中国</t>
+  </si>
+  <si>
+    <t>中国精神</t>
+  </si>
+  <si>
+    <t>以爱国主义为核心的民族精神</t>
+  </si>
+  <si>
+    <t>坚持注重效率与维护社会公平相协调</t>
+  </si>
+  <si>
+    <t>以改革创新为核心的时代精神</t>
+  </si>
+  <si>
+    <t>坚持把先进性要求与广泛性要求结合起来</t>
+  </si>
+  <si>
+    <t>中国价值</t>
+  </si>
+  <si>
+    <t>社会主义核心价值观</t>
+  </si>
+  <si>
+    <t>坚持道德教育与社会管理相配合</t>
+  </si>
+  <si>
+    <t>中国力量</t>
+  </si>
+  <si>
+    <t>中国各族人民大团结的力量</t>
+  </si>
+  <si>
+    <t>主要内容</t>
+  </si>
+  <si>
+    <t>核心</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+  </si>
+  <si>
+    <t>明星妓院</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>集体主义</t>
+  </si>
+  <si>
+    <t>基本要求</t>
+  </si>
+  <si>
+    <t>爱祖国、爱人民、爱劳动、爱科学、爱社会主义</t>
+  </si>
+  <si>
+    <t>五爱</t>
+  </si>
+  <si>
+    <r>
+      <t>爱国守法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(最基本)、明礼诚信、团结友善、勤俭自强、敬业奉献</t>
+    </r>
+  </si>
+  <si>
+    <t>公民</t>
+  </si>
+  <si>
+    <t>爱国守法</t>
+  </si>
+  <si>
+    <t>着力点</t>
+  </si>
+  <si>
+    <t>涵盖了人与人、人与社会、人与自然之间的关系</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>遵纪守法</t>
+  </si>
+  <si>
+    <t>外国人逛故宫</t>
+  </si>
+  <si>
+    <r>
+      <t>文明礼貌、助人为乐、爱护公物、保护环境、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵纪守法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(最基本)</t>
+    </r>
+  </si>
+  <si>
+    <t>涵盖了从业人员与服务对象、职业与职工、职业与职业之间的关系</t>
+  </si>
+  <si>
+    <t>爱岗敬业(最基本)、诚实守信、办事公道、热情服务、奉献社会(最高层次)</t>
+  </si>
+  <si>
+    <t>没有涉及上下级关系</t>
+  </si>
+  <si>
+    <t>涵盖了夫妻、长幼、邻里之间的关系</t>
+  </si>
+  <si>
+    <t>尊老爱幼、男女平等、夫妻和睦(核心)、勤俭持家、邻里互助</t>
+  </si>
+  <si>
+    <t>个人品德</t>
+  </si>
+  <si>
+    <t>爱国奉献、明理遵规、勤劳善良、宽厚正直、自强自律</t>
   </si>
 </sst>
 </file>
@@ -51,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -66,16 +448,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,22 +462,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,9 +498,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,24 +521,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,26 +550,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,14 +574,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,13 +607,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,85 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,86 +797,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -419,11 +807,180 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,56 +996,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,156 +1023,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,7 +1612,7 @@
   <sheetPr/>
   <dimension ref="D2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1042,4 +1667,940 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="28"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="31"/>
+      <c r="P29" s="32"/>
+      <c r="R29" s="22"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="33"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="O33" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="O34" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="O37" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D40"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="B3:C17"/>
+    <mergeCell ref="B18:C40"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>